--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_2_25.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_2_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1477050.685622788</v>
+        <v>1471188.365587608</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516697</v>
+        <v>2280223.65389273</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791248</v>
+        <v>419463.0933791244</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9506585.02589565</v>
+        <v>9505405.06711481</v>
       </c>
     </row>
     <row r="11">
@@ -662,19 +662,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>283.0103879733693</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>88.78378767101491</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -707,7 +707,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>221.2655964161775</v>
@@ -716,13 +716,13 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,16 +735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C3" t="n">
-        <v>114.2483168457465</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D3" t="n">
         <v>128.7880777047345</v>
       </c>
       <c r="E3" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>123.1874880556995</v>
@@ -756,7 +756,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
-        <v>175.2139736830806</v>
+        <v>77.35970163560694</v>
       </c>
       <c r="U3" t="n">
         <v>207.9625118881446</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.173651699005877</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -835,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>155.6053465906476</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>101.3496656498046</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
         <v>409.0311279568768</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>181.426195935896</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>150.2783710965517</v>
+        <v>4.756515304261944</v>
       </c>
       <c r="C6" t="n">
         <v>149.1476881355087</v>
@@ -990,10 +990,10 @@
         <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1029,7 +1029,7 @@
         <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
-        <v>22.78476950183072</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V6" t="n">
         <v>220.3146016126436</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>58.95640157257753</v>
+        <v>194.9632162960285</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>237.74112346794</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1142,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
         <v>409.0311279568768</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>233.8300434453434</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>392.5258019886049</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1345,13 +1345,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>57.87860001854913</v>
+        <v>157.2276889092491</v>
       </c>
       <c r="X10" t="n">
         <v>231.7395189948467</v>
@@ -1370,25 +1370,25 @@
         <v>325.411485859551</v>
       </c>
       <c r="C11" t="n">
-        <v>318.1654340873668</v>
+        <v>318.1654340873667</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>278.5304850060977</v>
       </c>
       <c r="E11" t="n">
         <v>327.479377239889</v>
       </c>
       <c r="F11" t="n">
-        <v>341.6471816905901</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>337.952815562145</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H11" t="n">
-        <v>249.7639075344424</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372792</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,19 +1418,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77010711362804</v>
+        <v>93.77010711362803</v>
       </c>
       <c r="T11" t="n">
-        <v>135.2889964048737</v>
+        <v>150.1872840214456</v>
       </c>
       <c r="U11" t="n">
-        <v>182.1168898750155</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X11" t="n">
         <v>314.4797666215418</v>
@@ -1534,16 +1534,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465761</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442488</v>
+        <v>40.78297506860722</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338906</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>51.58366707901689</v>
       </c>
       <c r="S13" t="n">
         <v>129.7096105845442</v>
@@ -1585,16 +1585,16 @@
         <v>211.5060914457862</v>
       </c>
       <c r="V13" t="n">
-        <v>183.9657818545961</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W13" t="n">
-        <v>209.4187856534023</v>
+        <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
         <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>149.8026281767912</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>325.411485859551</v>
+        <v>325.4114858595509</v>
       </c>
       <c r="C14" t="n">
-        <v>318.1654340873668</v>
+        <v>318.1654340873667</v>
       </c>
       <c r="D14" t="n">
-        <v>167.2186022584428</v>
+        <v>310.5084051007669</v>
       </c>
       <c r="E14" t="n">
-        <v>327.479377239889</v>
+        <v>327.4793772398889</v>
       </c>
       <c r="F14" t="n">
-        <v>341.6471816905901</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>337.952815562145</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>249.7639075344424</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372793</v>
+        <v>65.87543334372785</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362806</v>
+        <v>93.77010711362797</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214456</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>57.9825722487331</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>296.2107322866634</v>
       </c>
       <c r="X14" t="n">
         <v>314.4797666215418</v>
       </c>
       <c r="Y14" t="n">
-        <v>321.447489593873</v>
+        <v>321.4474895938729</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177851</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465762</v>
+        <v>40.7829750686081</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442489</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338907</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>60.685168714561</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>51.58366707901683</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T16" t="n">
-        <v>162.2835489187163</v>
+        <v>162.2835489187162</v>
       </c>
       <c r="U16" t="n">
-        <v>211.5060914457862</v>
+        <v>211.5060914457861</v>
       </c>
       <c r="V16" t="n">
-        <v>192.2412393326521</v>
+        <v>192.241239332652</v>
       </c>
       <c r="W16" t="n">
-        <v>209.4187856534023</v>
+        <v>209.4187856534022</v>
       </c>
       <c r="X16" t="n">
         <v>160.6612066001148</v>
       </c>
       <c r="Y16" t="n">
-        <v>90.02814092980478</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="17">
@@ -1841,13 +1841,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C17" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E17" t="n">
         <v>268.1977203190365</v>
@@ -1859,10 +1859,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
@@ -1907,7 +1907,7 @@
         <v>236.929075365811</v>
       </c>
       <c r="X17" t="n">
-        <v>255.1981097006885</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y17" t="n">
         <v>262.1658326730205</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F19" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T19" t="n">
         <v>103.0018919978638</v>
@@ -2062,13 +2062,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X19" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="20">
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C20" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E20" t="n">
         <v>268.1977203190365</v>
@@ -2096,10 +2096,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F22" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T22" t="n">
         <v>103.0018919978638</v>
@@ -2299,13 +2299,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X22" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="23">
@@ -2315,13 +2315,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C23" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E23" t="n">
         <v>268.1977203190365</v>
@@ -2333,10 +2333,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F25" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T25" t="n">
         <v>103.0018919978638</v>
@@ -2536,13 +2536,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X25" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>302.4985237799665</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C26" t="n">
         <v>295.2524720077822</v>
@@ -2561,7 +2561,7 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E26" t="n">
-        <v>304.5664151603045</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F26" t="n">
         <v>318.7342196110055</v>
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414337</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.8571450340435</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2615,13 +2615,13 @@
         <v>244.6944667292003</v>
       </c>
       <c r="W26" t="n">
-        <v>273.297770207079</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X26" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y26" t="n">
-        <v>298.5345275142885</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007182</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035423</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219395</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507307</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484033</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723247</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380451</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497644</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943236</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S28" t="n">
         <v>106.7966485049597</v>
@@ -2770,13 +2770,13 @@
         <v>188.5931293662016</v>
       </c>
       <c r="V28" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W28" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X28" t="n">
-        <v>137.7482445205303</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y28" t="n">
         <v>126.8896660972066</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.1533409542121</v>
+        <v>283.7098784815729</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820279</v>
+        <v>276.4638267093886</v>
       </c>
       <c r="D32" t="n">
-        <v>275.2502601954282</v>
+        <v>268.8067977227889</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345501</v>
+        <v>285.7777698619109</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852512</v>
+        <v>299.9455743126119</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568061</v>
+        <v>296.2512081841668</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291035</v>
+        <v>208.0623001564642</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838904</v>
+        <v>24.17382596574978</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828916</v>
+        <v>52.06849973564991</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161067</v>
+        <v>108.4856766434675</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696766</v>
+        <v>140.4152824970373</v>
       </c>
       <c r="V32" t="n">
-        <v>232.349283903446</v>
+        <v>225.9058214308068</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813246</v>
+        <v>254.5091249086854</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162029</v>
+        <v>272.7781592435637</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885341</v>
+        <v>279.7458822158949</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431749</v>
+        <v>70.57601873167823</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459989</v>
+        <v>55.72314698196064</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643962</v>
+        <v>41.29686219380037</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931873</v>
+        <v>41.22330424667948</v>
       </c>
       <c r="F34" t="n">
-        <v>49.416218139086</v>
+        <v>42.97275566644674</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147813</v>
+        <v>53.79159358883888</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822805018</v>
+        <v>41.14384575541092</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922211</v>
+        <v>18.98356133658285</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367802</v>
+        <v>9.88205970103877</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920534</v>
+        <v>88.00800320656609</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133774</v>
+        <v>120.5819415407382</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404473</v>
+        <v>169.804484067808</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273132</v>
+        <v>150.539631954674</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480634</v>
+        <v>167.7171782754241</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947759</v>
+        <v>118.9595992221367</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714523</v>
+        <v>108.101020798813</v>
       </c>
     </row>
     <row r="35">
@@ -3263,13 +3263,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C35" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D35" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E35" t="n">
         <v>268.1977203190365</v>
@@ -3281,10 +3281,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H35" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U35" t="n">
         <v>122.835232954163</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F37" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T37" t="n">
         <v>103.0018919978638</v>
@@ -3484,13 +3484,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W37" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X37" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="38">
@@ -3503,7 +3503,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C38" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
         <v>251.2267481799146</v>
@@ -3512,16 +3512,16 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F38" t="n">
-        <v>282.3655247697377</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G38" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875493</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,22 +3551,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277562</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059316</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V38" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W38" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X38" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y38" t="n">
         <v>262.1658326730205</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880394</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908635</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092607</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380518</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F40" t="n">
-        <v>25.39270612357245</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596459</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253663</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I40" t="n">
-        <v>1.40351179370856</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.4279536636918</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T40" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U40" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V40" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X40" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593875</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C41" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665142</v>
       </c>
       <c r="D41" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E41" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F41" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697375</v>
       </c>
       <c r="G41" t="n">
         <v>278.6711586412924</v>
       </c>
       <c r="H41" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875351</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277547</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059302</v>
       </c>
       <c r="U41" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V41" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W41" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658109</v>
       </c>
       <c r="X41" t="n">
         <v>255.1981097006893</v>
       </c>
       <c r="Y41" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880388</v>
+        <v>52.9959691888038</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908629</v>
+        <v>38.1430974390862</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092593</v>
       </c>
       <c r="E43" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380504</v>
       </c>
       <c r="F43" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357231</v>
       </c>
       <c r="G43" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596444</v>
       </c>
       <c r="H43" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253649</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708418</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369165</v>
       </c>
       <c r="T43" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978637</v>
       </c>
       <c r="U43" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V43" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117995</v>
       </c>
       <c r="W43" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X43" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593869</v>
+        <v>90.5209712559386</v>
       </c>
     </row>
     <row r="44">
@@ -3977,7 +3977,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C44" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D44" t="n">
         <v>251.2267481799146</v>
@@ -3986,16 +3986,16 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F44" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G44" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H44" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875493</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,22 +4025,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277562</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059316</v>
       </c>
       <c r="U44" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V44" t="n">
-        <v>208.3257718879328</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W44" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X44" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y44" t="n">
         <v>262.1658326730205</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880394</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908635</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092607</v>
       </c>
       <c r="E46" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380518</v>
       </c>
       <c r="F46" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357245</v>
       </c>
       <c r="G46" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596459</v>
       </c>
       <c r="H46" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253663</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708503</v>
+        <v>1.40351179370856</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369174</v>
+        <v>70.4279536636918</v>
       </c>
       <c r="T46" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U46" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V46" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W46" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X46" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593875</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1101.570563891395</v>
+        <v>1215.809282799977</v>
       </c>
       <c r="C2" t="n">
-        <v>1101.570563891395</v>
+        <v>1215.809282799977</v>
       </c>
       <c r="D2" t="n">
-        <v>1101.570563891395</v>
+        <v>929.940204038998</v>
       </c>
       <c r="E2" t="n">
-        <v>1101.570563891395</v>
+        <v>929.940204038998</v>
       </c>
       <c r="F2" t="n">
-        <v>684.6761254213728</v>
+        <v>917.0861696093798</v>
       </c>
       <c r="G2" t="n">
-        <v>271.513369909376</v>
+        <v>503.923414097383</v>
       </c>
       <c r="H2" t="n">
-        <v>181.8327763022902</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="J2" t="n">
-        <v>188.1454323035831</v>
+        <v>186.1530196651665</v>
       </c>
       <c r="K2" t="n">
-        <v>188.1454323035831</v>
+        <v>545.1353756926284</v>
       </c>
       <c r="L2" t="n">
-        <v>188.1454323035831</v>
+        <v>936.6744981739565</v>
       </c>
       <c r="M2" t="n">
-        <v>726.4042173136763</v>
+        <v>936.6744981739565</v>
       </c>
       <c r="N2" t="n">
-        <v>1254.215500951138</v>
+        <v>1450.277176783645</v>
       </c>
       <c r="O2" t="n">
-        <v>1641.74991746528</v>
+        <v>1890.316777675973</v>
       </c>
       <c r="P2" t="n">
-        <v>1989.937409596802</v>
+        <v>1890.316777675973</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R2" t="n">
-        <v>2136.790056023272</v>
+        <v>2037.169424102443</v>
       </c>
       <c r="S2" t="n">
-        <v>1970.276500964323</v>
+        <v>2037.169424102443</v>
       </c>
       <c r="T2" t="n">
-        <v>1746.77589852374</v>
+        <v>1813.66882166186</v>
       </c>
       <c r="U2" t="n">
-        <v>1491.023168958338</v>
+        <v>1557.916092096459</v>
       </c>
       <c r="V2" t="n">
-        <v>1491.023168958338</v>
+        <v>1215.809282799977</v>
       </c>
       <c r="W2" t="n">
-        <v>1491.023168958338</v>
+        <v>1215.809282799977</v>
       </c>
       <c r="X2" t="n">
-        <v>1101.570563891395</v>
+        <v>1215.809282799977</v>
       </c>
       <c r="Y2" t="n">
-        <v>1101.570563891395</v>
+        <v>1215.809282799977</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>807.6097523431069</v>
+        <v>655.0354850191687</v>
       </c>
       <c r="C3" t="n">
-        <v>692.2074120948781</v>
+        <v>504.3812545792609</v>
       </c>
       <c r="D3" t="n">
-        <v>562.1184447163585</v>
+        <v>374.2922872007413</v>
       </c>
       <c r="E3" t="n">
-        <v>425.6719538272462</v>
+        <v>374.2922872007413</v>
       </c>
       <c r="F3" t="n">
-        <v>301.240147710378</v>
+        <v>249.8604810838731</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822425</v>
+        <v>129.8006631557375</v>
       </c>
       <c r="H3" t="n">
-        <v>92.88291338284343</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="J3" t="n">
-        <v>156.6106416144824</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="K3" t="n">
-        <v>476.3497876767088</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="L3" t="n">
-        <v>959.915873575022</v>
+        <v>525.0693326546517</v>
       </c>
       <c r="M3" t="n">
-        <v>996.5377244563693</v>
+        <v>1038.67201126434</v>
       </c>
       <c r="N3" t="n">
-        <v>1534.796509466463</v>
+        <v>1552.274689874028</v>
       </c>
       <c r="O3" t="n">
-        <v>1534.796509466463</v>
+        <v>2065.877368483716</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.41787818286</v>
+        <v>2065.877368483716</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635815</v>
+        <v>2051.245294714986</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.935249535684</v>
+        <v>1916.314617614855</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.951437734592</v>
+        <v>1838.173504851615</v>
       </c>
       <c r="U3" t="n">
-        <v>1628.888294413234</v>
+        <v>1628.110361530257</v>
       </c>
       <c r="V3" t="n">
-        <v>1406.348292784301</v>
+        <v>1405.570359901324</v>
       </c>
       <c r="W3" t="n">
-        <v>1176.231046917588</v>
+        <v>1175.453114034611</v>
       </c>
       <c r="X3" t="n">
-        <v>986.9239692675997</v>
+        <v>986.1460363846229</v>
       </c>
       <c r="Y3" t="n">
-        <v>807.6097523431069</v>
+        <v>806.8318194601301</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>206.9683549315752</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="C4" t="n">
-        <v>206.9683549315752</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="D4" t="n">
-        <v>206.9683549315752</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="E4" t="n">
-        <v>206.9683549315752</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="F4" t="n">
-        <v>206.9683549315752</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="G4" t="n">
-        <v>206.9683549315752</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="H4" t="n">
-        <v>206.9683549315752</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="I4" t="n">
-        <v>73.87392956865307</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784967</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167607</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T4" t="n">
-        <v>709.2236301045415</v>
+        <v>707.231217466125</v>
       </c>
       <c r="U4" t="n">
-        <v>709.2236301045415</v>
+        <v>421.792425708026</v>
       </c>
       <c r="V4" t="n">
-        <v>443.2442849253657</v>
+        <v>421.792425708026</v>
       </c>
       <c r="W4" t="n">
-        <v>443.2442849253657</v>
+        <v>264.6153079396951</v>
       </c>
       <c r="X4" t="n">
-        <v>209.1639627083488</v>
+        <v>264.6153079396951</v>
       </c>
       <c r="Y4" t="n">
-        <v>209.1639627083488</v>
+        <v>41.50324675633843</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>873.5528533767741</v>
+        <v>1246.136666978355</v>
       </c>
       <c r="C5" t="n">
-        <v>873.5528533767741</v>
+        <v>852.9611654812858</v>
       </c>
       <c r="D5" t="n">
-        <v>873.5528533767741</v>
+        <v>467.5200366979535</v>
       </c>
       <c r="E5" t="n">
-        <v>873.5528533767741</v>
+        <v>467.5200366979535</v>
       </c>
       <c r="F5" t="n">
-        <v>456.6584149067519</v>
+        <v>454.6660022683353</v>
       </c>
       <c r="G5" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="H5" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="J5" t="n">
-        <v>43.49565939475502</v>
+        <v>186.1530196651665</v>
       </c>
       <c r="K5" t="n">
-        <v>43.49565939475502</v>
+        <v>545.1353756926284</v>
       </c>
       <c r="L5" t="n">
-        <v>536.8159511132839</v>
+        <v>545.1353756926284</v>
       </c>
       <c r="M5" t="n">
-        <v>1075.074736123377</v>
+        <v>773.3325661833832</v>
       </c>
       <c r="N5" t="n">
-        <v>1602.886019760839</v>
+        <v>1286.935244793071</v>
       </c>
       <c r="O5" t="n">
-        <v>2042.925620653168</v>
+        <v>1726.9748456854</v>
       </c>
       <c r="P5" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R5" t="n">
-        <v>2136.790056023272</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="S5" t="n">
-        <v>1970.276500964323</v>
+        <v>1908.648782757972</v>
       </c>
       <c r="T5" t="n">
-        <v>1970.276500964323</v>
+        <v>1685.148180317389</v>
       </c>
       <c r="U5" t="n">
-        <v>1714.523771398922</v>
+        <v>1429.395450751987</v>
       </c>
       <c r="V5" t="n">
-        <v>1372.41696210244</v>
+        <v>1429.395450751987</v>
       </c>
       <c r="W5" t="n">
-        <v>1372.41696210244</v>
+        <v>1429.395450751987</v>
       </c>
       <c r="X5" t="n">
-        <v>1372.41696210244</v>
+        <v>1246.136666978355</v>
       </c>
       <c r="Y5" t="n">
-        <v>975.9262530230415</v>
+        <v>1246.136666978355</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>842.8616425347859</v>
+        <v>703.184559508882</v>
       </c>
       <c r="C6" t="n">
-        <v>692.2074120948781</v>
+        <v>552.5303290689742</v>
       </c>
       <c r="D6" t="n">
-        <v>562.1184447163585</v>
+        <v>422.4413616904545</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6719538272462</v>
+        <v>285.9948708013422</v>
       </c>
       <c r="F6" t="n">
-        <v>301.240147710378</v>
+        <v>161.563064684474</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822425</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284343</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="J6" t="n">
-        <v>43.49565939475502</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K6" t="n">
-        <v>43.49565939475502</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="L6" t="n">
-        <v>43.49565939475502</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="M6" t="n">
-        <v>480.0174418653883</v>
+        <v>1471.526139546294</v>
       </c>
       <c r="N6" t="n">
-        <v>1018.276226875481</v>
+        <v>1985.128818155982</v>
       </c>
       <c r="O6" t="n">
-        <v>1534.796509466463</v>
+        <v>1985.128818155982</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.41787818286</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R6" t="n">
-        <v>2150.865926635815</v>
+        <v>2051.245294714986</v>
       </c>
       <c r="S6" t="n">
-        <v>2015.935249535684</v>
+        <v>1916.314617614855</v>
       </c>
       <c r="T6" t="n">
-        <v>1838.951437734592</v>
+        <v>1739.330805813763</v>
       </c>
       <c r="U6" t="n">
-        <v>1815.936519045874</v>
+        <v>1529.267662492405</v>
       </c>
       <c r="V6" t="n">
-        <v>1593.396517416941</v>
+        <v>1306.727660863472</v>
       </c>
       <c r="W6" t="n">
-        <v>1363.279271550228</v>
+        <v>1076.610414996759</v>
       </c>
       <c r="X6" t="n">
-        <v>1173.97219390024</v>
+        <v>887.3033373467706</v>
       </c>
       <c r="Y6" t="n">
-        <v>994.6579769757473</v>
+        <v>707.9891204222779</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>244.0790475026639</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="C7" t="n">
-        <v>73.87392956865307</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="D7" t="n">
-        <v>73.87392956865307</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="E7" t="n">
-        <v>73.87392956865307</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="F7" t="n">
-        <v>73.87392956865307</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="G7" t="n">
-        <v>73.87392956865307</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="H7" t="n">
-        <v>73.87392956865307</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="I7" t="n">
-        <v>73.87392956865307</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784967</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167607</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>821.0416925688844</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S7" t="n">
-        <v>821.0416925688844</v>
+        <v>740.1341854804402</v>
       </c>
       <c r="T7" t="n">
-        <v>821.0416925688844</v>
+        <v>504.4151336486743</v>
       </c>
       <c r="U7" t="n">
-        <v>761.489771788503</v>
+        <v>307.4825919355142</v>
       </c>
       <c r="V7" t="n">
-        <v>761.489771788503</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="W7" t="n">
-        <v>478.1593697196807</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="X7" t="n">
-        <v>244.0790475026639</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="Y7" t="n">
-        <v>244.0790475026639</v>
+        <v>41.50324675633843</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1732.965832921677</v>
+        <v>935.7499273842031</v>
       </c>
       <c r="C8" t="n">
-        <v>1339.790331424607</v>
+        <v>935.7499273842031</v>
       </c>
       <c r="D8" t="n">
-        <v>1339.790331424607</v>
+        <v>935.7499273842031</v>
       </c>
       <c r="E8" t="n">
-        <v>1339.790331424607</v>
+        <v>935.7499273842031</v>
       </c>
       <c r="F8" t="n">
         <v>922.895892954585</v>
@@ -4802,25 +4802,25 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K8" t="n">
-        <v>550.9450990378335</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L8" t="n">
-        <v>1044.265390756362</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="M8" t="n">
-        <v>1590.266290800943</v>
+        <v>952.2962261735861</v>
       </c>
       <c r="N8" t="n">
-        <v>2118.077574438405</v>
+        <v>1480.107509811048</v>
       </c>
       <c r="O8" t="n">
-        <v>2365.64850507718</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P8" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
@@ -4829,25 +4829,25 @@
         <v>2365.64850507718</v>
       </c>
       <c r="S8" t="n">
-        <v>2365.64850507718</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T8" t="n">
-        <v>2365.64850507718</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="U8" t="n">
-        <v>2365.64850507718</v>
+        <v>1943.38222045283</v>
       </c>
       <c r="V8" t="n">
-        <v>2365.64850507718</v>
+        <v>1943.38222045283</v>
       </c>
       <c r="W8" t="n">
-        <v>2365.64850507718</v>
+        <v>1572.383185421117</v>
       </c>
       <c r="X8" t="n">
-        <v>2129.456542001076</v>
+        <v>1572.383185421117</v>
       </c>
       <c r="Y8" t="n">
-        <v>1732.965832921677</v>
+        <v>1175.892476341718</v>
       </c>
     </row>
     <row r="9">
@@ -4884,22 +4884,22 @@
         <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>480.1670983834975</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="L9" t="n">
-        <v>963.7331842818107</v>
+        <v>643.9940382195844</v>
       </c>
       <c r="M9" t="n">
-        <v>1549.231189288413</v>
+        <v>643.9940382195844</v>
       </c>
       <c r="N9" t="n">
-        <v>2134.729194295015</v>
+        <v>1229.492043226187</v>
       </c>
       <c r="O9" t="n">
-        <v>2134.729194295015</v>
+        <v>1746.012325817167</v>
       </c>
       <c r="P9" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.64850507718</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>247.8963582094524</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -4993,19 +4993,19 @@
         <v>948.7599926430961</v>
       </c>
       <c r="U10" t="n">
-        <v>948.7599926430961</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="V10" t="n">
-        <v>948.7599926430961</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="W10" t="n">
-        <v>890.2967603011273</v>
+        <v>504.5053535019172</v>
       </c>
       <c r="X10" t="n">
-        <v>656.2164380841103</v>
+        <v>270.4250312849002</v>
       </c>
       <c r="Y10" t="n">
-        <v>433.1043769007537</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1719.577864530541</v>
+        <v>1589.282783693955</v>
       </c>
       <c r="C11" t="n">
-        <v>1398.198638179666</v>
+        <v>1267.903557343079</v>
       </c>
       <c r="D11" t="n">
-        <v>1398.198638179666</v>
+        <v>986.5596330944957</v>
       </c>
       <c r="E11" t="n">
-        <v>1067.411388442404</v>
+        <v>655.772383357234</v>
       </c>
       <c r="F11" t="n">
-        <v>722.3132251185756</v>
+        <v>655.772383357234</v>
       </c>
       <c r="G11" t="n">
-        <v>380.9467447527726</v>
+        <v>314.405902991431</v>
       </c>
       <c r="H11" t="n">
-        <v>128.6599694654571</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J11" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K11" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L11" t="n">
         <v>1059.071548358934</v>
@@ -5069,22 +5069,22 @@
         <v>3011.239105293021</v>
       </c>
       <c r="T11" t="n">
-        <v>2874.583553368906</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="U11" t="n">
-        <v>2690.627098949699</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="V11" t="n">
-        <v>2690.627098949699</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="W11" t="n">
-        <v>2690.627098949699</v>
+        <v>2560.332018113113</v>
       </c>
       <c r="X11" t="n">
-        <v>2372.970769028949</v>
+        <v>2242.675688192363</v>
       </c>
       <c r="Y11" t="n">
-        <v>2048.276335095744</v>
+        <v>1917.981254259159</v>
       </c>
     </row>
     <row r="12">
@@ -5118,22 +5118,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K12" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L12" t="n">
-        <v>545.6852136024288</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M12" t="n">
-        <v>1173.45686322911</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="N12" t="n">
-        <v>1829.234834439669</v>
+        <v>1942.349816659396</v>
       </c>
       <c r="O12" t="n">
-        <v>2345.75511703065</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P12" t="n">
         <v>2380.454662679751</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>315.0936002318644</v>
+        <v>103.3140520158402</v>
       </c>
       <c r="C13" t="n">
-        <v>315.0936002318644</v>
+        <v>103.3140520158402</v>
       </c>
       <c r="D13" t="n">
-        <v>315.0936002318644</v>
+        <v>103.3140520158402</v>
       </c>
       <c r="E13" t="n">
-        <v>231.3310632372608</v>
+        <v>103.3140520158402</v>
       </c>
       <c r="F13" t="n">
-        <v>145.8014035964277</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G13" t="n">
-        <v>145.8014035964277</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H13" t="n">
         <v>62.11912770411553</v>
@@ -5206,13 +5206,13 @@
         <v>489.4106539027734</v>
       </c>
       <c r="M13" t="n">
-        <v>746.069761511822</v>
+        <v>746.0697615118221</v>
       </c>
       <c r="N13" t="n">
-        <v>999.6269248138158</v>
+        <v>999.6269248138159</v>
       </c>
       <c r="O13" t="n">
-        <v>1232.699221126308</v>
+        <v>1232.699221126309</v>
       </c>
       <c r="P13" t="n">
         <v>1422.942916173672</v>
@@ -5221,28 +5221,28 @@
         <v>1496.732641814507</v>
       </c>
       <c r="R13" t="n">
-        <v>1496.732641814507</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="S13" t="n">
-        <v>1365.71283314325</v>
+        <v>1313.608118922021</v>
       </c>
       <c r="T13" t="n">
-        <v>1201.790056457678</v>
+        <v>1149.685342236449</v>
       </c>
       <c r="U13" t="n">
-        <v>988.1475398457732</v>
+        <v>936.0428256245441</v>
       </c>
       <c r="V13" t="n">
-        <v>802.3235177704235</v>
+        <v>741.8597555915619</v>
       </c>
       <c r="W13" t="n">
-        <v>590.7893908477949</v>
+        <v>530.3256286689334</v>
       </c>
       <c r="X13" t="n">
-        <v>428.5053437769719</v>
+        <v>368.0415815981104</v>
       </c>
       <c r="Y13" t="n">
-        <v>428.5053437769719</v>
+        <v>216.7257955609476</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1888.485543579474</v>
+        <v>1346.758074478048</v>
       </c>
       <c r="C14" t="n">
-        <v>1567.106317228599</v>
+        <v>1025.378848127172</v>
       </c>
       <c r="D14" t="n">
-        <v>1398.198638179666</v>
+        <v>711.7339944900341</v>
       </c>
       <c r="E14" t="n">
-        <v>1067.411388442404</v>
+        <v>380.9467447527724</v>
       </c>
       <c r="F14" t="n">
-        <v>722.3132251185755</v>
+        <v>380.9467447527724</v>
       </c>
       <c r="G14" t="n">
-        <v>380.9467447527725</v>
+        <v>380.9467447527724</v>
       </c>
       <c r="H14" t="n">
-        <v>128.6599694654569</v>
+        <v>128.659969465457</v>
       </c>
       <c r="I14" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J14" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K14" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L14" t="n">
         <v>1059.071548358934</v>
@@ -5309,19 +5309,19 @@
         <v>2859.534777998631</v>
       </c>
       <c r="U14" t="n">
-        <v>2859.534777998631</v>
+        <v>2675.578323579424</v>
       </c>
       <c r="V14" t="n">
-        <v>2859.534777998631</v>
+        <v>2617.010068782724</v>
       </c>
       <c r="W14" t="n">
-        <v>2859.534777998631</v>
+        <v>2317.807308897205</v>
       </c>
       <c r="X14" t="n">
-        <v>2541.878448077882</v>
+        <v>2000.150978976456</v>
       </c>
       <c r="Y14" t="n">
-        <v>2217.184014144677</v>
+        <v>1675.456545043251</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>174.7633905351325</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>174.7633905351325</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L15" t="n">
-        <v>174.7633905351325</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M15" t="n">
-        <v>802.5350401618138</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N15" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O15" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P15" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>460.2285883998843</v>
+        <v>103.3140520158409</v>
       </c>
       <c r="C16" t="n">
-        <v>460.2285883998843</v>
+        <v>103.3140520158409</v>
       </c>
       <c r="D16" t="n">
-        <v>376.391750448593</v>
+        <v>103.3140520158409</v>
       </c>
       <c r="E16" t="n">
-        <v>292.6292134539893</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F16" t="n">
-        <v>207.0995538131561</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G16" t="n">
-        <v>207.0995538131561</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H16" t="n">
-        <v>123.4172779208439</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>102.7129143774626</v>
+        <v>102.7129143774627</v>
       </c>
       <c r="K16" t="n">
-        <v>254.915484758189</v>
+        <v>254.9154847581892</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027734</v>
+        <v>489.4106539027737</v>
       </c>
       <c r="M16" t="n">
-        <v>746.0697615118221</v>
+        <v>746.0697615118223</v>
       </c>
       <c r="N16" t="n">
-        <v>999.626924813816</v>
+        <v>999.6269248138162</v>
       </c>
       <c r="O16" t="n">
         <v>1232.699221126309</v>
@@ -5455,31 +5455,31 @@
         <v>1422.942916173672</v>
       </c>
       <c r="Q16" t="n">
-        <v>1496.732641814507</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="R16" t="n">
-        <v>1496.732641814507</v>
+        <v>1444.627927593279</v>
       </c>
       <c r="S16" t="n">
-        <v>1496.732641814507</v>
+        <v>1313.608118922022</v>
       </c>
       <c r="T16" t="n">
-        <v>1332.809865128935</v>
+        <v>1149.68534223645</v>
       </c>
       <c r="U16" t="n">
-        <v>1119.16734851703</v>
+        <v>936.0428256245448</v>
       </c>
       <c r="V16" t="n">
-        <v>924.984278484048</v>
+        <v>741.859755591563</v>
       </c>
       <c r="W16" t="n">
-        <v>713.4501515614194</v>
+        <v>530.3256286689345</v>
       </c>
       <c r="X16" t="n">
-        <v>551.1661044905962</v>
+        <v>368.0415815981114</v>
       </c>
       <c r="Y16" t="n">
-        <v>460.2285883998843</v>
+        <v>216.7257955609484</v>
       </c>
     </row>
     <row r="17">
@@ -5501,13 +5501,13 @@
         <v>827.8895422975452</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803432</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5546,7 +5546,7 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U17" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V17" t="n">
         <v>2644.789635573994</v>
@@ -5558,7 +5558,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y17" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="18">
@@ -5598,19 +5598,19 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>978.5393418843826</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M18" t="n">
-        <v>1606.310991511064</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N18" t="n">
-        <v>1606.310991511064</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O18" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P18" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
@@ -5677,22 +5677,22 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L19" t="n">
-        <v>435.0968109750523</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M19" t="n">
-        <v>621.3883893133163</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N19" t="n">
-        <v>804.5780233445255</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O19" t="n">
-        <v>967.2827903862335</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P19" t="n">
-        <v>1087.158956162812</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q19" t="n">
-        <v>1090.581152532863</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R19" t="n">
         <v>1098.20216247628</v>
@@ -5701,22 +5701,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U19" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="20">
@@ -5741,10 +5741,10 @@
         <v>542.6718405099314</v>
       </c>
       <c r="G20" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924224</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5759,10 +5759,10 @@
         <v>1059.071548358934</v>
       </c>
       <c r="M20" t="n">
-        <v>1605.072448403516</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N20" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O20" t="n">
         <v>2572.923332933306</v>
@@ -5771,10 +5771,10 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q20" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R20" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S20" t="n">
         <v>3071.119566829236</v>
@@ -5786,7 +5786,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W20" t="n">
         <v>2405.467337224691</v>
@@ -5795,7 +5795,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y20" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="21">
@@ -5832,16 +5832,16 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>494.9732559860694</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L21" t="n">
-        <v>978.5393418843826</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M21" t="n">
-        <v>1606.310991511064</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N21" t="n">
-        <v>1606.310991511064</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O21" t="n">
         <v>1740.468202408463</v>
@@ -5884,46 +5884,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>67.69877031229927</v>
+        <v>67.69877031229888</v>
       </c>
       <c r="K22" t="n">
-        <v>149.5338114222411</v>
+        <v>149.5338114222407</v>
       </c>
       <c r="L22" t="n">
-        <v>313.6614512960409</v>
+        <v>313.6614512960405</v>
       </c>
       <c r="M22" t="n">
-        <v>499.953029634305</v>
+        <v>629.0093992567331</v>
       </c>
       <c r="N22" t="n">
-        <v>683.1426636655142</v>
+        <v>812.1990332879423</v>
       </c>
       <c r="O22" t="n">
-        <v>974.9038003296507</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P22" t="n">
         <v>1094.779966106229</v>
@@ -5938,22 +5938,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U22" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C23" t="n">
         <v>1352.560722599516</v>
       </c>
       <c r="D23" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803435</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6014,7 +6014,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T23" t="n">
         <v>2979.295701071061</v>
@@ -6023,16 +6023,16 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V23" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X23" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y23" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="24">
@@ -6069,16 +6069,16 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K24" t="n">
-        <v>494.9732559860694</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L24" t="n">
-        <v>978.5393418843826</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="M24" t="n">
-        <v>1606.310991511064</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N24" t="n">
-        <v>1606.310991511064</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O24" t="n">
         <v>1740.468202408463</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
@@ -6148,25 +6148,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>143.9541688140574</v>
+        <v>270.9691711012521</v>
       </c>
       <c r="L25" t="n">
-        <v>308.0818086878572</v>
+        <v>435.0968109750519</v>
       </c>
       <c r="M25" t="n">
-        <v>494.3733870261212</v>
+        <v>621.3883893133159</v>
       </c>
       <c r="N25" t="n">
-        <v>677.5630210573304</v>
+        <v>804.578023344525</v>
       </c>
       <c r="O25" t="n">
-        <v>840.2677880990384</v>
+        <v>967.282790386233</v>
       </c>
       <c r="P25" t="n">
-        <v>960.1439538756169</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q25" t="n">
-        <v>1090.581152532863</v>
+        <v>1090.581152532862</v>
       </c>
       <c r="R25" t="n">
         <v>1098.20216247628</v>
@@ -6175,22 +6175,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U25" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424153</v>
+        <v>1882.457606424152</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214272</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D26" t="n">
-        <v>1293.722338718128</v>
+        <v>1293.722338718127</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0794951218604</v>
+        <v>986.07949512186</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390265</v>
+        <v>664.1257379390261</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142181</v>
+        <v>345.9036637142176</v>
       </c>
       <c r="H26" t="n">
         <v>116.7612945678971</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755027</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J26" t="n">
         <v>311.0659935859517</v>
@@ -6230,25 +6230,25 @@
         <v>763.0997113429868</v>
       </c>
       <c r="L26" t="n">
-        <v>1256.420003061516</v>
+        <v>1286.389518343938</v>
       </c>
       <c r="M26" t="n">
-        <v>1895.47226483567</v>
+        <v>1925.441780118092</v>
       </c>
       <c r="N26" t="n">
-        <v>2516.334910202705</v>
+        <v>2546.304425485127</v>
       </c>
       <c r="O26" t="n">
         <v>2986.344026377456</v>
       </c>
       <c r="P26" t="n">
-        <v>3334.531518508978</v>
+        <v>3427.582880238551</v>
       </c>
       <c r="Q26" t="n">
         <v>3612.4284403795</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377514</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="S26" t="n">
         <v>3596.670073605752</v>
@@ -6257,19 +6257,19 @@
         <v>3468.110152452357</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174145</v>
+        <v>3307.298104174144</v>
       </c>
       <c r="V26" t="n">
-        <v>3060.131976164851</v>
+        <v>3060.13197616485</v>
       </c>
       <c r="W26" t="n">
-        <v>2784.073622420327</v>
+        <v>2784.073622420326</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640572</v>
+        <v>2489.561698640571</v>
       </c>
       <c r="Y26" t="n">
-        <v>2188.011670848362</v>
+        <v>2188.011670848361</v>
       </c>
     </row>
     <row r="27">
@@ -6300,28 +6300,28 @@
         <v>122.7521129356387</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755027</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J27" t="n">
         <v>186.4798411672776</v>
       </c>
       <c r="K27" t="n">
-        <v>506.2189872295041</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="L27" t="n">
-        <v>989.7850731278173</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="M27" t="n">
-        <v>1617.556722754498</v>
+        <v>814.2514907939589</v>
       </c>
       <c r="N27" t="n">
-        <v>1751.713933651898</v>
+        <v>1470.029462004518</v>
       </c>
       <c r="O27" t="n">
-        <v>1751.713933651898</v>
+        <v>1986.079025206788</v>
       </c>
       <c r="P27" t="n">
-        <v>2157.335302368295</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="Q27" t="n">
         <v>2391.700393923186</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985351</v>
+        <v>504.3300981985352</v>
       </c>
       <c r="C28" t="n">
         <v>429.0656615517127</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414157</v>
+        <v>368.3732297414158</v>
       </c>
       <c r="E28" t="n">
         <v>307.7550988878066</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879678</v>
+        <v>245.3698453879679</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746017</v>
+        <v>172.0564727746018</v>
       </c>
       <c r="H28" t="n">
-        <v>111.5186030232841</v>
+        <v>111.518603023284</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755027</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796859</v>
+        <v>136.642478079686</v>
       </c>
       <c r="K28" t="n">
-        <v>311.528880919201</v>
+        <v>311.5288809192011</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225741</v>
+        <v>568.7078825225742</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904115</v>
+        <v>848.0508225904116</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
@@ -6421,13 +6421,13 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.9084564286449</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988163</v>
+        <v>722.7688154988164</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026479</v>
+        <v>594.597435602648</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424152</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718127</v>
+        <v>1293.722338718128</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218602</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390263</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142178</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
@@ -6461,28 +6461,28 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J29" t="n">
-        <v>311.0659935859517</v>
+        <v>218.0146318563784</v>
       </c>
       <c r="K29" t="n">
-        <v>763.0997113429868</v>
+        <v>606.9665031662622</v>
       </c>
       <c r="L29" t="n">
-        <v>1349.471364791089</v>
+        <v>1193.338156614364</v>
       </c>
       <c r="M29" t="n">
-        <v>1981.256287116105</v>
+        <v>1832.390418388518</v>
       </c>
       <c r="N29" t="n">
-        <v>2602.118932483141</v>
+        <v>2453.253063755554</v>
       </c>
       <c r="O29" t="n">
-        <v>3042.158533375469</v>
+        <v>2986.344026377456</v>
       </c>
       <c r="P29" t="n">
-        <v>3390.346025506991</v>
+        <v>3334.531518508978</v>
       </c>
       <c r="Q29" t="n">
-        <v>3668.242947377513</v>
+        <v>3612.4284403795</v>
       </c>
       <c r="R29" t="n">
         <v>3668.242947377513</v>
@@ -6491,22 +6491,22 @@
         <v>3596.670073605752</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452356</v>
+        <v>3468.110152452357</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174143</v>
+        <v>3307.298104174144</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.13197616485</v>
+        <v>3060.131976164851</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420326</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640571</v>
+        <v>2489.561698640572</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.01167084836</v>
+        <v>2188.011670848361</v>
       </c>
     </row>
     <row r="30">
@@ -6540,25 +6540,25 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J30" t="n">
-        <v>186.4798411672776</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="K30" t="n">
-        <v>506.2189872295041</v>
+        <v>393.1040050097767</v>
       </c>
       <c r="L30" t="n">
-        <v>989.7850731278173</v>
+        <v>393.1040050097767</v>
       </c>
       <c r="M30" t="n">
-        <v>989.7850731278173</v>
+        <v>813.7807714052482</v>
       </c>
       <c r="N30" t="n">
-        <v>1235.193651060917</v>
+        <v>1469.558742615807</v>
       </c>
       <c r="O30" t="n">
-        <v>1751.713933651898</v>
+        <v>1986.079025206788</v>
       </c>
       <c r="P30" t="n">
-        <v>2157.335302368295</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="Q30" t="n">
         <v>2391.700393923186</v>
@@ -6598,7 +6598,7 @@
         <v>504.330098198535</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517125</v>
+        <v>429.0656615517126</v>
       </c>
       <c r="D31" t="n">
         <v>368.3732297414156</v>
@@ -6610,7 +6610,7 @@
         <v>245.3698453879678</v>
       </c>
       <c r="G31" t="n">
-        <v>172.0564727746018</v>
+        <v>172.0564727746017</v>
       </c>
       <c r="H31" t="n">
         <v>111.5186030232841</v>
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222131</v>
+        <v>1743.798875918589</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654426</v>
+        <v>1464.542485303045</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800458</v>
+        <v>1193.020467401238</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463668</v>
+        <v>904.3560533993075</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057089</v>
+        <v>601.3807258108105</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230764</v>
+        <v>302.137081180339</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189324</v>
+        <v>91.97314162835497</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076167</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="J32" t="n">
-        <v>214.1973211495898</v>
+        <v>212.2049085111732</v>
       </c>
       <c r="K32" t="n">
-        <v>678.4527699041216</v>
+        <v>571.187264538635</v>
       </c>
       <c r="L32" t="n">
-        <v>1277.046154349721</v>
+        <v>1064.507556257164</v>
       </c>
       <c r="M32" t="n">
-        <v>1928.320147121371</v>
+        <v>1610.508456301744</v>
       </c>
       <c r="N32" t="n">
-        <v>2456.131430758833</v>
+        <v>2138.319739939207</v>
       </c>
       <c r="O32" t="n">
-        <v>2944.344359765613</v>
+        <v>2690.011461406518</v>
       </c>
       <c r="P32" t="n">
-        <v>3292.531851897135</v>
+        <v>3118.495954132882</v>
       </c>
       <c r="Q32" t="n">
-        <v>3477.377412038084</v>
+        <v>3303.341514273831</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038084</v>
+        <v>3377.756780117254</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908498</v>
+        <v>3325.16233593983</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397279</v>
+        <v>3215.580844380772</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761242</v>
+        <v>3073.747225696896</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394125</v>
+        <v>2845.559527281939</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291777</v>
+        <v>2588.479603131752</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154198</v>
+        <v>2312.946108946334</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004163</v>
+        <v>2030.374510748461</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423761</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024683</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239486</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732529</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563847</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.9348022288501</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076167</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="J33" t="n">
-        <v>182.6625304604891</v>
+        <v>180.6701178220725</v>
       </c>
       <c r="K33" t="n">
-        <v>502.4016765227155</v>
+        <v>500.4092638842989</v>
       </c>
       <c r="L33" t="n">
-        <v>985.9677624210287</v>
+        <v>500.4092638842989</v>
       </c>
       <c r="M33" t="n">
-        <v>985.9677624210287</v>
+        <v>1128.18091351098</v>
       </c>
       <c r="N33" t="n">
-        <v>1641.745733631588</v>
+        <v>1463.749019270603</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>1980.269301861584</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965139</v>
+        <v>365.6713676929712</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918675</v>
+        <v>309.3853606404857</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237467</v>
+        <v>267.6713584245257</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123136</v>
+        <v>226.0316571652536</v>
       </c>
       <c r="F34" t="n">
-        <v>204.142889754651</v>
+        <v>182.6248332597518</v>
       </c>
       <c r="G34" t="n">
-        <v>143.299398783461</v>
+        <v>128.2898902407226</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431936</v>
+        <v>86.7304500837419</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076167</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703943</v>
+        <v>149.4335135798905</v>
       </c>
       <c r="K34" t="n">
-        <v>332.1550322074062</v>
+        <v>231.2685546898324</v>
       </c>
       <c r="L34" t="n">
-        <v>601.5557648082761</v>
+        <v>395.3961945636322</v>
       </c>
       <c r="M34" t="n">
-        <v>893.1204358736102</v>
+        <v>693.3398934768792</v>
       </c>
       <c r="N34" t="n">
-        <v>1076.310069904819</v>
+        <v>876.5295275080884</v>
       </c>
       <c r="O34" t="n">
-        <v>1239.014836946527</v>
+        <v>1145.033953152043</v>
       </c>
       <c r="P34" t="n">
-        <v>1464.164095450176</v>
+        <v>1376.562239503605</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746646</v>
+        <v>1379.984435873655</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308587</v>
+        <v>1370.002557387758</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420501</v>
+        <v>1281.105584451832</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.9091795181</v>
+        <v>1159.305643501592</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689365</v>
+        <v>987.7859626250179</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395535</v>
+        <v>835.7257283273674</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000955</v>
+        <v>666.3144371400703</v>
       </c>
       <c r="X34" t="n">
-        <v>606.722570012443</v>
+        <v>546.1532258045786</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584508</v>
+        <v>436.9602755027472</v>
       </c>
     </row>
     <row r="35">
@@ -6917,19 +6917,19 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D35" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803432</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6968,19 +6968,19 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U35" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V35" t="n">
         <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X35" t="n">
-        <v>2147.691468840157</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y35" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="36">
@@ -7020,16 +7020,16 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L36" t="n">
-        <v>494.9732559860694</v>
+        <v>973.7913173233209</v>
       </c>
       <c r="M36" t="n">
-        <v>568.1699486069232</v>
+        <v>973.7913173233209</v>
       </c>
       <c r="N36" t="n">
-        <v>1223.947919817482</v>
+        <v>1629.56928853388</v>
       </c>
       <c r="O36" t="n">
-        <v>1740.468202408463</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P36" t="n">
         <v>2146.089571124861</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
@@ -7105,16 +7105,16 @@
         <v>494.3733870261212</v>
       </c>
       <c r="N37" t="n">
-        <v>677.5630210573304</v>
+        <v>806.619390679759</v>
       </c>
       <c r="O37" t="n">
-        <v>845.8474307072222</v>
+        <v>969.3241577214671</v>
       </c>
       <c r="P37" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498046</v>
       </c>
       <c r="Q37" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868097</v>
       </c>
       <c r="R37" t="n">
         <v>1098.20216247628</v>
@@ -7123,22 +7123,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U37" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="38">
@@ -7154,19 +7154,19 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D38" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G38" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924229</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7202,13 +7202,13 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T38" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U38" t="n">
         <v>2855.219708188068</v>
       </c>
       <c r="V38" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W38" t="n">
         <v>2405.467337224691</v>
@@ -7257,19 +7257,19 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L39" t="n">
-        <v>494.9732559860694</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M39" t="n">
-        <v>1122.744905612751</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N39" t="n">
-        <v>1740.468202408463</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="O39" t="n">
-        <v>1740.468202408463</v>
+        <v>2122.831274102045</v>
       </c>
       <c r="P39" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885598</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369575</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218806</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634915</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588729</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072684</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462923</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K40" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L40" t="n">
-        <v>308.0818086878572</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M40" t="n">
-        <v>494.3733870261212</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N40" t="n">
-        <v>677.5630210573304</v>
+        <v>776.8456480823215</v>
       </c>
       <c r="O40" t="n">
-        <v>840.2677880990384</v>
+        <v>939.5504151240295</v>
       </c>
       <c r="P40" t="n">
-        <v>1089.200323498045</v>
+        <v>1059.426580900608</v>
       </c>
       <c r="Q40" t="n">
-        <v>1092.622519868096</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R40" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S40" t="n">
-        <v>1027.062815341239</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918814</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U40" t="n">
-        <v>769.2584451161907</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194234</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330094</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X40" t="n">
-        <v>380.898585698401</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974527</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C41" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D41" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975449</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099313</v>
       </c>
       <c r="G41" t="n">
         <v>261.185821680343</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924224</v>
+        <v>68.77950792924214</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7418,10 +7418,10 @@
         <v>1059.071548358934</v>
       </c>
       <c r="M41" t="n">
-        <v>1605.072448403516</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N41" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O41" t="n">
         <v>2572.923332933306</v>
@@ -7430,28 +7430,28 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q41" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R41" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T41" t="n">
         <v>2979.295701071061</v>
       </c>
       <c r="U41" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V41" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W41" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X41" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y41" t="n">
         <v>1882.877496443165</v>
@@ -7488,16 +7488,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K42" t="n">
-        <v>494.9732559860694</v>
+        <v>84.60386270860994</v>
       </c>
       <c r="L42" t="n">
-        <v>978.5393418843826</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="M42" t="n">
-        <v>978.5393418843826</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N42" t="n">
         <v>1223.947919817482</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885588</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369566</v>
       </c>
       <c r="D43" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218799</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634909</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588725</v>
       </c>
       <c r="G43" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072654</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462908</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K43" t="n">
-        <v>243.2367958390485</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L43" t="n">
-        <v>435.0968109750523</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M43" t="n">
-        <v>621.3883893133163</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N43" t="n">
-        <v>804.5780233445255</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O43" t="n">
-        <v>967.2827903862335</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P43" t="n">
-        <v>1087.158956162812</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q43" t="n">
-        <v>1090.581152532863</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R43" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S43" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T43" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918796</v>
       </c>
       <c r="U43" t="n">
-        <v>769.25844511619</v>
+        <v>769.258445116189</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194218</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330088</v>
+        <v>483.302171233008</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856983996</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974515</v>
       </c>
     </row>
     <row r="44">
@@ -7637,10 +7637,10 @@
         <v>542.6718405099314</v>
       </c>
       <c r="G44" t="n">
-        <v>261.1858216803432</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H44" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292423</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7667,13 +7667,13 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q44" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R44" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S44" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T44" t="n">
         <v>2979.295701071061</v>
@@ -7682,7 +7682,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V44" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W44" t="n">
         <v>2405.467337224691</v>
@@ -7728,19 +7728,19 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K45" t="n">
-        <v>494.9732559860694</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L45" t="n">
-        <v>596.176270190801</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M45" t="n">
-        <v>1223.947919817482</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="N45" t="n">
-        <v>1223.947919817482</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="O45" t="n">
-        <v>1740.468202408463</v>
+        <v>1803.092128039818</v>
       </c>
       <c r="P45" t="n">
         <v>2146.089571124861</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885598</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369575</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218806</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634915</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588729</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072684</v>
       </c>
       <c r="H46" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462923</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
@@ -7816,40 +7816,40 @@
         <v>494.3733870261212</v>
       </c>
       <c r="N46" t="n">
-        <v>806.6193906797589</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O46" t="n">
-        <v>969.3241577214669</v>
+        <v>967.2827903862344</v>
       </c>
       <c r="P46" t="n">
-        <v>1089.200323498045</v>
+        <v>1087.158956162813</v>
       </c>
       <c r="Q46" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532864</v>
       </c>
       <c r="R46" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S46" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T46" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918814</v>
       </c>
       <c r="U46" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161907</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194234</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330094</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856984004</v>
+        <v>380.898585698401</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974527</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7979,22 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>153.2481697304917</v>
+        <v>548.7422328429444</v>
       </c>
       <c r="M2" t="n">
-        <v>693.4207940321648</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920145</v>
       </c>
       <c r="O2" t="n">
-        <v>541.0127429939366</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q2" t="n">
         <v>331.2113854294513</v>
@@ -8055,28 +8055,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L3" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>129.3788906163294</v>
+        <v>611.1777065035423</v>
       </c>
       <c r="N3" t="n">
-        <v>629.0678552886043</v>
+        <v>604.162697308397</v>
       </c>
       <c r="O3" t="n">
-        <v>92.68755888888889</v>
+        <v>611.4781433431193</v>
       </c>
       <c r="P3" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q3" t="n">
-        <v>327.7205688679246</v>
+        <v>100.3669100581418</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8213,25 +8213,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321648</v>
+        <v>380.2272642146513</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920145</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>283.4906887405039</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
         <v>144.4986984183922</v>
@@ -8292,28 +8292,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>533.3182154539919</v>
+        <v>611.1777065035423</v>
       </c>
       <c r="N6" t="n">
-        <v>629.0678552886043</v>
+        <v>604.162697308397</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P6" t="n">
-        <v>496.801919078302</v>
+        <v>178.0263139717792</v>
       </c>
       <c r="Q6" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M8" t="n">
         <v>701.2411122488187</v>
@@ -8465,13 +8465,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>399.6354845339704</v>
+        <v>505.6324667106232</v>
       </c>
       <c r="P8" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8532,25 +8532,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L9" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>683.7992483186069</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N9" t="n">
         <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
-        <v>320.3351938922088</v>
+        <v>476.2460796729735</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8696,7 +8696,7 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M11" t="n">
-        <v>701.2411122488187</v>
+        <v>701.2411122488188</v>
       </c>
       <c r="N11" t="n">
         <v>682.2612020826953</v>
@@ -8766,7 +8766,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
         <v>89.59693533333335</v>
@@ -8781,10 +8781,10 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
-        <v>614.4252180716981</v>
+        <v>125.4991521252098</v>
       </c>
       <c r="P12" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
         <v>90.98815315591399</v>
@@ -8945,7 +8945,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q14" t="n">
-        <v>331.2113854294514</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R14" t="n">
         <v>102.5176150018526</v>
@@ -9003,16 +9003,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>196.2265410010273</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
         <v>90.06034685691823</v>
       </c>
       <c r="M15" t="n">
-        <v>726.4998994499999</v>
+        <v>166.3231752016895</v>
       </c>
       <c r="N15" t="n">
         <v>747.7741039759435</v>
@@ -9024,7 +9024,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9246,22 +9246,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M18" t="n">
-        <v>726.4998994499999</v>
+        <v>403.0555909137002</v>
       </c>
       <c r="N18" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
-        <v>228.1998931286865</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9407,7 +9407,7 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M20" t="n">
-        <v>701.2411122488187</v>
+        <v>701.2411122488188</v>
       </c>
       <c r="N20" t="n">
         <v>682.2612020826953</v>
@@ -9480,19 +9480,19 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>726.4998994499999</v>
+        <v>663.2434089132776</v>
       </c>
       <c r="N21" t="n">
         <v>85.37211285416666</v>
       </c>
       <c r="O21" t="n">
-        <v>228.1998931286865</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
         <v>496.801919078302</v>
@@ -9717,19 +9717,19 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L24" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M24" t="n">
-        <v>726.4998994499999</v>
+        <v>489.2920096079789</v>
       </c>
       <c r="N24" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O24" t="n">
-        <v>228.1998931286865</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
         <v>496.801919078302</v>
@@ -9954,25 +9954,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L27" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M27" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N27" t="n">
-        <v>220.884447093964</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O27" t="n">
-        <v>92.68755888888889</v>
+        <v>613.9497439416874</v>
       </c>
       <c r="P27" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10188,19 +10188,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K30" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M30" t="n">
-        <v>92.38712204931191</v>
+        <v>517.3131487114043</v>
       </c>
       <c r="N30" t="n">
-        <v>333.2595653118427</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
@@ -10209,7 +10209,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10431,22 +10431,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M33" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>747.7741039759435</v>
+        <v>424.3297954396439</v>
       </c>
       <c r="O33" t="n">
-        <v>199.9106794075977</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10668,10 +10668,10 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
-        <v>90.06034685691823</v>
+        <v>573.7149542682833</v>
       </c>
       <c r="M36" t="n">
-        <v>166.3231752016895</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N36" t="n">
         <v>747.7741039759435</v>
@@ -10680,7 +10680,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q36" t="n">
         <v>327.7205688679246</v>
@@ -10905,22 +10905,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
-        <v>709.3350389104421</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O39" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>496.801919078302</v>
+        <v>347.309009847301</v>
       </c>
       <c r="Q39" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11136,10 +11136,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
-        <v>412.5657697396227</v>
+        <v>112.3087888732267</v>
       </c>
       <c r="L42" t="n">
         <v>578.5109386733963</v>
@@ -11148,7 +11148,7 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N42" t="n">
-        <v>333.2595653118431</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
@@ -11376,10 +11376,10 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L45" t="n">
-        <v>192.2856137303845</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
         <v>726.4998994499999</v>
@@ -11391,7 +11391,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>496.801919078302</v>
+        <v>433.5454285415798</v>
       </c>
       <c r="Q45" t="n">
         <v>327.7205688679246</v>
@@ -23261,13 +23261,13 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>310.508405100767</v>
+        <v>31.97792009466934</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>65.87543334372791</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,16 +23309,16 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>14.89828761657185</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>182.1168898750155</v>
       </c>
       <c r="V11" t="n">
         <v>267.6074288087849</v>
       </c>
       <c r="W11" t="n">
-        <v>296.2107322866635</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993877</v>
+        <v>97.42475435993876</v>
       </c>
       <c r="D13" t="n">
-        <v>82.9984695717785</v>
+        <v>82.99846957177849</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>82.9249116246576</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>43.89138797581765</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681701</v>
+        <v>95.493200966817</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>82.84545313338904</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456099</v>
+        <v>60.68516871456097</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901691</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>8.27545747805604</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.8026281767912</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23498,16 +23498,16 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>143.2898028423243</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23549,13 +23549,13 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750155</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>267.6074288087849</v>
+        <v>209.6248565600517</v>
       </c>
       <c r="W14" t="n">
-        <v>296.2107322866635</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.2776261096564</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993879</v>
+        <v>97.4247543599387</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>82.99846957177843</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>42.14193655604945</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>84.67436304442481</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681703</v>
+        <v>95.49320096681694</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>82.84545313338899</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>60.68516871456092</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901692</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>129.7096105845442</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>59.77448724698642</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23795,7 +23795,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>8.526512829121202e-13</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -25922,7 +25922,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>-3.694822225952521e-13</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>833234.2045499616</v>
+        <v>832632.6569362013</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>833234.2045499616</v>
+        <v>832632.6569362013</v>
       </c>
     </row>
     <row r="4">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>742924.1913941156</v>
+        <v>742924.1913941158</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>837303.3874044187</v>
+        <v>837303.3874044188</v>
       </c>
     </row>
     <row r="8">
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>450830.4452333921</v>
+        <v>450830.445233392</v>
       </c>
       <c r="C2" t="n">
-        <v>450830.4452333921</v>
+        <v>450830.445233392</v>
       </c>
       <c r="D2" t="n">
-        <v>450830.445233392</v>
+        <v>450830.4452333918</v>
       </c>
       <c r="E2" t="n">
         <v>398397.5585610018</v>
       </c>
       <c r="F2" t="n">
-        <v>398397.5585610016</v>
+        <v>398397.558561002</v>
       </c>
       <c r="G2" t="n">
+        <v>450830.4452333923</v>
+      </c>
+      <c r="H2" t="n">
         <v>450830.4452333922</v>
-      </c>
-      <c r="H2" t="n">
-        <v>450830.4452333923</v>
       </c>
       <c r="I2" t="n">
         <v>450830.4452333924</v>
@@ -26338,22 +26338,22 @@
         <v>450830.4452333915</v>
       </c>
       <c r="K2" t="n">
-        <v>450830.4452333915</v>
+        <v>450830.4452333917</v>
       </c>
       <c r="L2" t="n">
-        <v>450830.4452333923</v>
+        <v>450830.4452333921</v>
       </c>
       <c r="M2" t="n">
-        <v>450830.4452333922</v>
+        <v>450830.4452333921</v>
       </c>
       <c r="N2" t="n">
         <v>450830.4452333923</v>
       </c>
       <c r="O2" t="n">
+        <v>450830.4452333922</v>
+      </c>
+      <c r="P2" t="n">
         <v>450830.4452333923</v>
-      </c>
-      <c r="P2" t="n">
-        <v>450830.4452333922</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.948291856</v>
+        <v>173858.657034055</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062176</v>
+        <v>22558.42953401354</v>
       </c>
       <c r="E3" t="n">
         <v>112122.5614740445</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.325536682</v>
+        <v>47425.32553668195</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945027</v>
+        <v>200285.8640399293</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728546</v>
+        <v>62456.24177539681</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962297</v>
+        <v>43252.52447081119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277121</v>
+        <v>27767.69404277123</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188945.5063541666</v>
+        <v>195056.1330166296</v>
       </c>
       <c r="C4" t="n">
-        <v>188945.5063541665</v>
+        <v>195056.1330166296</v>
       </c>
       <c r="D4" t="n">
         <v>177238.0115641587</v>
       </c>
       <c r="E4" t="n">
-        <v>99893.08150805096</v>
+        <v>99893.08150805101</v>
       </c>
       <c r="F4" t="n">
-        <v>99893.08150805096</v>
+        <v>99893.08150805105</v>
       </c>
       <c r="G4" t="n">
         <v>147651.9979996332</v>
@@ -26439,19 +26439,19 @@
         <v>147651.9979996332</v>
       </c>
       <c r="J4" t="n">
-        <v>148402.4904640164</v>
+        <v>148402.4904640163</v>
       </c>
       <c r="K4" t="n">
         <v>148402.4904640163</v>
       </c>
       <c r="L4" t="n">
-        <v>148146.916563533</v>
+        <v>148013.5219544782</v>
       </c>
       <c r="M4" t="n">
         <v>147651.9979996332</v>
       </c>
       <c r="N4" t="n">
-        <v>147651.9979996331</v>
+        <v>147651.9979996332</v>
       </c>
       <c r="O4" t="n">
         <v>147651.9979996333</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001381</v>
+        <v>65170.06753481721</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001381</v>
+        <v>65170.06753481721</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26479,31 +26479,31 @@
         <v>53186.01969984052</v>
       </c>
       <c r="F5" t="n">
-        <v>53186.01969984051</v>
+        <v>53186.01969984052</v>
       </c>
       <c r="G5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="H5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="I5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="J5" t="n">
-        <v>63659.04525391951</v>
+        <v>63659.0452539195</v>
       </c>
       <c r="K5" t="n">
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173852</v>
+        <v>60823.19813315422</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="N5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
         <v>58169.76931551967</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>12995.68944735567</v>
+        <v>16745.58764789015</v>
       </c>
       <c r="C6" t="n">
-        <v>195200.6377392117</v>
+        <v>190604.2446819452</v>
       </c>
       <c r="D6" t="n">
-        <v>189184.8360814384</v>
+        <v>181448.5468580464</v>
       </c>
       <c r="E6" t="n">
-        <v>133195.8958790658</v>
+        <v>132986.1643323762</v>
       </c>
       <c r="F6" t="n">
-        <v>245318.4573531101</v>
+        <v>245108.7258064208</v>
       </c>
       <c r="G6" t="n">
-        <v>197583.3523815574</v>
+        <v>197583.3523815575</v>
       </c>
       <c r="H6" t="n">
+        <v>245008.6779182393</v>
+      </c>
+      <c r="I6" t="n">
         <v>245008.6779182394</v>
       </c>
-      <c r="I6" t="n">
-        <v>245008.6779182395</v>
-      </c>
       <c r="J6" t="n">
-        <v>31966.76032095296</v>
+        <v>38483.04547552641</v>
       </c>
       <c r="K6" t="n">
-        <v>238768.9095154557</v>
+        <v>238768.9095154558</v>
       </c>
       <c r="L6" t="n">
-        <v>183586.3205808353</v>
+        <v>179537.4833703629</v>
       </c>
       <c r="M6" t="n">
-        <v>202807.8484586164</v>
+        <v>201756.153447428</v>
       </c>
       <c r="N6" t="n">
-        <v>245008.6779182396</v>
+        <v>245008.6779182394</v>
       </c>
       <c r="O6" t="n">
         <v>217240.9838754681</v>
       </c>
       <c r="P6" t="n">
-        <v>245008.6779182393</v>
+        <v>245008.6779182394</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26707,25 +26707,25 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K2" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
       </c>
       <c r="N2" t="n">
+        <v>130.3599693155844</v>
+      </c>
+      <c r="O2" t="n">
+        <v>130.3599693155845</v>
+      </c>
+      <c r="P2" t="n">
         <v>130.3599693155843</v>
-      </c>
-      <c r="O2" t="n">
-        <v>130.3599693155844</v>
-      </c>
-      <c r="P2" t="n">
-        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="3">
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344376</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344376</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26805,19 +26805,19 @@
         <v>776.4890963014441</v>
       </c>
       <c r="H4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="I4" t="n">
         <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443784</v>
+        <v>917.0607368443782</v>
       </c>
       <c r="K4" t="n">
-        <v>917.0607368443783</v>
+        <v>917.0607368443782</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095209</v>
+        <v>844.4391950293135</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26826,10 +26826,10 @@
         <v>776.4890963014441</v>
       </c>
       <c r="O4" t="n">
+        <v>776.4890963014441</v>
+      </c>
+      <c r="P4" t="n">
         <v>776.4890963014442</v>
-      </c>
-      <c r="P4" t="n">
-        <v>776.4890963014441</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>59.2816569208525</v>
+        <v>59.28165692085244</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26932,19 +26932,19 @@
         <v>34.70961755346396</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660682</v>
+        <v>78.07030221924602</v>
       </c>
       <c r="M2" t="n">
-        <v>24.0235120155136</v>
+        <v>17.58004954287438</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346401</v>
+        <v>34.70961755346404</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344376</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485742</v>
+        <v>72.62154181506469</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.267382977372</v>
+        <v>659.3622249971645</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.2217133240722</v>
+        <v>117.1268713042796</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>59.2816569208525</v>
+        <v>59.28165692085244</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>34.70961755346396</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344376</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485742</v>
+        <v>72.62154181506469</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27382,19 +27382,19 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>98.57632952212958</v>
       </c>
       <c r="E2" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>232.0584322581593</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,13 +27436,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
         <v>392.5258019886049</v>
@@ -27455,16 +27455,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>34.89937128976217</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27509,7 +27509,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>97.85427204747367</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>181.1822868053824</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
         <v>168.5030667546707</v>
@@ -27555,10 +27555,10 @@
         <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27591,19 +27591,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>124.8917514574866</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>295.1401326044783</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>204.1318830803777</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>145.5218557922898</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -27710,10 +27710,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27749,7 +27749,7 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>185.1777423863139</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27774,7 +27774,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
         <v>154.0767819665104</v>
@@ -27795,7 +27795,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>223.6280022679405</v>
+        <v>87.62118754448957</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
         <v>220.8809405715231</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>158.7486747863429</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
         <v>381.5867174954989</v>
@@ -27862,7 +27862,7 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>151.7280355709303</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
         <v>154.0767819665104</v>
@@ -28032,7 +28032,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28065,13 +28065,13 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>222.618498029585</v>
+        <v>123.269409138885</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="C11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="D11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="E11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="G11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="H11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="I11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="T11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="U11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="V11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="W11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="X11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473191</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="C13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="D13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="E13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="G13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="H13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="I13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="J13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="K13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="L13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="M13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="N13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="O13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="P13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="R13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="S13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="T13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="U13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="V13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="W13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="X13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473191</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
     </row>
     <row r="17">
@@ -28749,10 +28749,10 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>128.2979821082779</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -28764,10 +28764,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>5.636002634528545</v>
       </c>
       <c r="R19" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
         <v>130.3599693155844</v>
@@ -28831,7 +28831,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1.023181539494544e-12</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -28980,7 +28980,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
-        <v>35.7104901066881</v>
+        <v>35.71049010668771</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -28989,13 +28989,13 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -29220,7 +29220,7 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>128.2979821082774</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -29238,7 +29238,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>128.2979821082778</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>130.3599693155844</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>30.27223765901215</v>
       </c>
       <c r="M26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O26" t="n">
-        <v>30.27223765901311</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="29">
@@ -29533,22 +29533,22 @@
         <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>93.99127447431646</v>
+        <v>30.27223765901209</v>
       </c>
       <c r="L29" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="M29" t="n">
-        <v>86.65052755599584</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N29" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -29557,7 +29557,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="R29" t="n">
-        <v>37.61298457733328</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S29" t="n">
         <v>93.99127447431646</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>48.65992738833501</v>
+        <v>112.77991977271</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>81.10808140893187</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>37.61298457733328</v>
+        <v>112.77991977271</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="J34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="K34" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>106.8683420224713</v>
       </c>
       <c r="P34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Q34" t="n">
-        <v>18.71446861254442</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
     </row>
     <row r="35">
@@ -30177,19 +30177,19 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="O37" t="n">
-        <v>5.636002634529035</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082772</v>
       </c>
       <c r="S37" t="n">
         <v>130.3599693155844</v>
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="39">
@@ -30378,31 +30378,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30420,34 +30420,34 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>130.3599693155843</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>28.0125002648524</v>
       </c>
       <c r="R40" t="n">
-        <v>128.2979821082788</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="S40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="C41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="D41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="E41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="F41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="G41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="H41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="I41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30490,7 +30490,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>1.023181539494544e-12</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="T41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="U41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="V41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="W41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="X41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="Y41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
     </row>
     <row r="42">
@@ -30615,37 +30615,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="C43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="D43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="E43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="F43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="G43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="H43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="I43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="J43" t="n">
-        <v>130.3599693155844</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>28.01250026485263</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -30663,28 +30663,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>130.3599693155844</v>
+        <v>128.2979821082768</v>
       </c>
       <c r="S43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="T43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="U43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="V43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="W43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="X43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="Y43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30739,31 +30739,31 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>6.252776074688882e-13</v>
       </c>
       <c r="R44" t="n">
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="45">
@@ -30852,28 +30852,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J46" t="n">
         <v>30.07448747215907</v>
@@ -30888,40 +30888,40 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>128.2979821082787</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>5.636002634529005</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>122.6619794737488</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="S46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
   </sheetData>
@@ -34699,22 +34699,22 @@
         <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>395.4940631124527</v>
       </c>
       <c r="M2" t="n">
-        <v>543.6957424344376</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="O2" t="n">
-        <v>391.4489055698403</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>186.7126870110591</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>36.99176856701749</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="N3" t="n">
-        <v>543.6957424344376</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="P3" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>236.7324157120106</v>
+        <v>9.378756902227758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>543.6957424344376</v>
+        <v>230.502212616924</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>133.1892414995787</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>440.93109340468</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="N6" t="n">
-        <v>543.6957424344376</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>409.7185542589873</v>
+        <v>90.94294915246452</v>
       </c>
       <c r="Q6" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>551.5160606510915</v>
@@ -35185,13 +35185,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>250.071647109874</v>
+        <v>356.0686292865269</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,25 +35252,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
-        <v>233.2518290728942</v>
+        <v>389.1627148536588</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35416,7 +35416,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M11" t="n">
-        <v>551.5160606510915</v>
+        <v>551.5160606510916</v>
       </c>
       <c r="N11" t="n">
         <v>533.1427107449111</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35501,10 +35501,10 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
-        <v>521.7376591828091</v>
+        <v>32.81159323632088</v>
       </c>
       <c r="P12" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257283</v>
+        <v>41.00382492257284</v>
       </c>
       <c r="K13" t="n">
         <v>153.7399700815419</v>
@@ -35574,19 +35574,19 @@
         <v>236.8638072167519</v>
       </c>
       <c r="M13" t="n">
-        <v>259.2516238475238</v>
+        <v>259.2516238475239</v>
       </c>
       <c r="N13" t="n">
         <v>256.1183467696907</v>
       </c>
       <c r="O13" t="n">
-        <v>235.4265619318107</v>
+        <v>235.4265619318108</v>
       </c>
       <c r="P13" t="n">
         <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488438</v>
+        <v>74.53507640488439</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35665,7 +35665,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q14" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,16 +35723,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>113.782083667694</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>634.1127774006881</v>
+        <v>73.93605315237758</v>
       </c>
       <c r="N15" t="n">
         <v>662.4019911217769</v>
@@ -35744,7 +35744,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257281</v>
+        <v>41.0038249225729</v>
       </c>
       <c r="K16" t="n">
         <v>153.7399700815419</v>
       </c>
       <c r="L16" t="n">
-        <v>236.8638072167519</v>
+        <v>236.863807216752</v>
       </c>
       <c r="M16" t="n">
-        <v>259.2516238475238</v>
+        <v>259.2516238475239</v>
       </c>
       <c r="N16" t="n">
-        <v>256.1183467696907</v>
+        <v>256.1183467696908</v>
       </c>
       <c r="O16" t="n">
-        <v>235.4265619318107</v>
+        <v>235.4265619318108</v>
       </c>
       <c r="P16" t="n">
-        <v>192.16534853269</v>
+        <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488436</v>
+        <v>74.53507640488445</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35896,7 +35896,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O17" t="n">
-        <v>444.4844453457863</v>
+        <v>444.4844453457864</v>
       </c>
       <c r="P17" t="n">
         <v>351.7045375065877</v>
@@ -35966,22 +35966,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>634.1127774006881</v>
+        <v>310.6684688643883</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O18" t="n">
-        <v>135.5123342397976</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36045,10 +36045,10 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L19" t="n">
-        <v>294.0834769302979</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N19" t="n">
         <v>185.0400343749588</v>
@@ -36060,10 +36060,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.456764010152483</v>
+        <v>9.092766644681028</v>
       </c>
       <c r="R19" t="n">
-        <v>7.697989841835579</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36127,7 +36127,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M20" t="n">
-        <v>551.5160606510925</v>
+        <v>551.5160606510916</v>
       </c>
       <c r="N20" t="n">
         <v>533.1427107449111</v>
@@ -36200,19 +36200,19 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>634.1127774006881</v>
+        <v>570.8562868639657</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>135.5123342397976</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
         <v>409.7185542589873</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>5.63600263452903</v>
+        <v>5.636002634528635</v>
       </c>
       <c r="K22" t="n">
         <v>82.66165768680997</v>
@@ -36285,13 +36285,13 @@
         <v>165.78549482202</v>
       </c>
       <c r="M22" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N22" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
-        <v>294.7082188526632</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
         <v>121.0870361379582</v>
@@ -36437,19 +36437,19 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>634.1127774006881</v>
+        <v>396.904887558667</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O24" t="n">
-        <v>135.5123342397976</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
         <v>409.7185542589873</v>
@@ -36516,7 +36516,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>82.66165768680997</v>
+        <v>210.9596397950874</v>
       </c>
       <c r="L25" t="n">
         <v>165.78549482202</v>
@@ -36534,10 +36534,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q25" t="n">
-        <v>131.7547461184303</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>7.697989841835579</v>
+        <v>7.697989841835607</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36598,7 +36598,7 @@
         <v>456.5997149060961</v>
       </c>
       <c r="L26" t="n">
-        <v>498.303324968211</v>
+        <v>528.5755626272231</v>
       </c>
       <c r="M26" t="n">
         <v>645.507335125408</v>
@@ -36607,16 +36607,16 @@
         <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
-        <v>474.7566830047994</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P26" t="n">
-        <v>351.7045375065877</v>
+        <v>445.6958119809042</v>
       </c>
       <c r="Q26" t="n">
-        <v>280.7039614853755</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698316</v>
+        <v>56.37828989698318</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,25 +36674,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N27" t="n">
-        <v>135.5123342397974</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>521.2621850527985</v>
       </c>
       <c r="P27" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215737</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L28" t="n">
-        <v>259.7767692963364</v>
+        <v>259.7767692963365</v>
       </c>
       <c r="M28" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N28" t="n">
-        <v>279.0313088492752</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O28" t="n">
         <v>258.3395240113953</v>
@@ -36771,7 +36771,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446892</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,22 +36829,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>240.1021562004054</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K29" t="n">
-        <v>456.5997149060961</v>
+        <v>392.8806780907917</v>
       </c>
       <c r="L29" t="n">
         <v>592.2945994425274</v>
       </c>
       <c r="M29" t="n">
-        <v>638.1665882070873</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
         <v>627.1339852192276</v>
       </c>
       <c r="O29" t="n">
-        <v>444.4844453457863</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
         <v>351.7045375065877</v>
@@ -36853,7 +36853,7 @@
         <v>280.7039614853756</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>56.37828989698318</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,19 +36908,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>424.9260266620924</v>
       </c>
       <c r="N30" t="n">
-        <v>247.8874524576761</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
@@ -36929,7 +36929,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37069,28 +37069,28 @@
         <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
-        <v>468.9448977318504</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
-        <v>604.6397822682818</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
-        <v>657.8525179511623</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>493.1443727341213</v>
+        <v>557.2643651184964</v>
       </c>
       <c r="P32" t="n">
-        <v>351.7045375065877</v>
+        <v>432.8126189155196</v>
       </c>
       <c r="Q32" t="n">
         <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>75.16693519537675</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,22 +37151,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
-        <v>662.4019911217769</v>
+        <v>338.9576825854773</v>
       </c>
       <c r="O33" t="n">
-        <v>107.2231205187088</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P33" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.26196982791171</v>
+        <v>82.70543230055097</v>
       </c>
       <c r="K34" t="n">
-        <v>188.9981149868808</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
-        <v>272.1219521220908</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>294.5097687528627</v>
+        <v>300.953231225502</v>
       </c>
       <c r="N34" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>164.3482495370789</v>
+        <v>271.2165915595501</v>
       </c>
       <c r="P34" t="n">
-        <v>227.4234934380289</v>
+        <v>233.8669559106682</v>
       </c>
       <c r="Q34" t="n">
-        <v>22.1712326226969</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37309,7 +37309,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L35" t="n">
-        <v>498.303324968211</v>
+        <v>498.3033249682109</v>
       </c>
       <c r="M35" t="n">
         <v>551.5160606510915</v>
@@ -37388,10 +37388,10 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>483.6546074113651</v>
       </c>
       <c r="M36" t="n">
-        <v>73.93605315237758</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>662.4019911217769</v>
@@ -37400,7 +37400,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>236.7324157120106</v>
@@ -37473,19 +37473,19 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N37" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905432</v>
       </c>
       <c r="O37" t="n">
-        <v>169.9842521716079</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P37" t="n">
-        <v>251.4470054535425</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q37" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>5.636002634528405</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37625,22 +37625,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
-        <v>623.9629260562755</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>409.7185542589873</v>
+        <v>260.2256450279863</v>
       </c>
       <c r="Q39" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K40" t="n">
         <v>82.66165768680997</v>
@@ -37716,13 +37716,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P40" t="n">
-        <v>251.4470054535425</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
-        <v>3.456764010152483</v>
+        <v>31.46926427500488</v>
       </c>
       <c r="R40" t="n">
-        <v>5.636002634530013</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37786,7 +37786,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M41" t="n">
-        <v>551.5160606510925</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N41" t="n">
         <v>533.1427107449111</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>322.9688344062893</v>
+        <v>22.71185353989334</v>
       </c>
       <c r="L42" t="n">
         <v>488.450591816478</v>
@@ -37868,7 +37868,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>247.8874524576764</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
@@ -37935,13 +37935,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L43" t="n">
-        <v>193.7979950868726</v>
+        <v>296.1454641376044</v>
       </c>
       <c r="M43" t="n">
         <v>188.1733114527919</v>
@@ -37959,7 +37959,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R43" t="n">
-        <v>7.697989841835579</v>
+        <v>5.636002634527946</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38035,7 +38035,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q44" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110598</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38096,10 +38096,10 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>102.2252668734663</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
         <v>634.1127774006881</v>
@@ -38111,7 +38111,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>409.7185542589873</v>
+        <v>346.4620637222652</v>
       </c>
       <c r="Q45" t="n">
         <v>236.7324157120106</v>
@@ -38184,19 +38184,19 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N46" t="n">
-        <v>315.4000036905431</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O46" t="n">
-        <v>164.3482495370789</v>
+        <v>292.6462316453576</v>
       </c>
       <c r="P46" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q46" t="n">
-        <v>9.092766644681488</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>7.697989841835522</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
